--- a/data/save_data/2021/thompson_keegan.xlsx
+++ b/data/save_data/2021/thompson_keegan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>IP</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>I0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -497,6 +507,12 @@
       <c r="H2" t="n">
         <v>3</v>
       </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -525,6 +541,12 @@
       <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -551,6 +573,12 @@
         <v>18</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -581,6 +609,12 @@
       <c r="H5" t="n">
         <v>3</v>
       </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -609,6 +643,12 @@
       <c r="H6" t="n">
         <v>4</v>
       </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +677,12 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,6 +710,12 @@
       </c>
       <c r="H8" t="n">
         <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -693,6 +745,12 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -721,6 +779,12 @@
       <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -749,6 +813,12 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -777,6 +847,12 @@
       <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="I12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -805,6 +881,12 @@
       <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -833,6 +915,12 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -861,6 +949,12 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -889,6 +983,12 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -917,6 +1017,12 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
+      <c r="I17" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -945,6 +1051,12 @@
       <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -973,6 +1085,12 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1001,6 +1119,12 @@
       <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1029,6 +1153,12 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1057,6 +1187,12 @@
       <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1085,6 +1221,12 @@
       <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1113,6 +1255,12 @@
       <c r="H24" t="n">
         <v>3</v>
       </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1141,6 +1289,12 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
+      <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1169,6 +1323,12 @@
       <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1197,6 +1357,12 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1225,6 +1391,12 @@
       <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1253,6 +1425,12 @@
       <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1281,6 +1459,12 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1309,6 +1493,12 @@
       <c r="H31" t="n">
         <v>3</v>
       </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1337,6 +1527,12 @@
       <c r="H32" t="n">
         <v>4</v>
       </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1365,6 +1561,12 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1393,6 +1595,12 @@
       <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1421,6 +1629,12 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
+      <c r="I35" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1449,6 +1663,12 @@
       <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1476,6 +1696,12 @@
       </c>
       <c r="H37" t="n">
         <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/save_data/2021/thompson_keegan.xlsx
+++ b/data/save_data/2021/thompson_keegan.xlsx
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G2" t="n">
         <v>21</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G4" t="n">
         <v>18</v>
@@ -601,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G6" t="n">
         <v>11</v>
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>12</v>
@@ -771,7 +771,7 @@
         <v>-4</v>
       </c>
       <c r="F10" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -873,7 +873,7 @@
         <v>-1</v>
       </c>
       <c r="F13" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
@@ -941,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         <v>-1</v>
       </c>
       <c r="F18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1145,7 +1145,7 @@
         <v>-2</v>
       </c>
       <c r="F21" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1179,7 +1179,7 @@
         <v>-1</v>
       </c>
       <c r="F22" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G22" t="n">
         <v>15</v>
@@ -1247,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
         <v>11</v>
@@ -1281,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>11</v>
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>-2</v>
       </c>
       <c r="F36" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>

--- a/data/save_data/2021/thompson_keegan.xlsx
+++ b/data/save_data/2021/thompson_keegan.xlsx
@@ -502,7 +502,7 @@
         <v>-1</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -570,7 +570,7 @@
         <v>-3</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -604,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -638,7 +638,7 @@
         <v>-2</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -672,7 +672,7 @@
         <v>-1</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>-7</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -808,7 +808,7 @@
         <v>-1</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>-6</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -876,7 +876,7 @@
         <v>-2</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>-1</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -1080,7 +1080,7 @@
         <v>-3</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -1114,7 +1114,7 @@
         <v>-1</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -1148,7 +1148,7 @@
         <v>-4</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>-3</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -1216,7 +1216,7 @@
         <v>-4</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
@@ -1250,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
@@ -1352,7 +1352,7 @@
         <v>-1</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>4</v>
@@ -1556,7 +1556,7 @@
         <v>-1</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>-3</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>

--- a/data/save_data/2021/thompson_keegan.xlsx
+++ b/data/save_data/2021/thompson_keegan.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="n">
         <v>-1</v>
@@ -564,7 +564,7 @@
         <v>54</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="n">
         <v>-3</v>
@@ -598,10 +598,10 @@
         <v>62</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -632,7 +632,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="n">
         <v>-2</v>
@@ -669,7 +669,7 @@
         <v>-1</v>
       </c>
       <c r="F7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -700,10 +700,10 @@
         <v>43</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -768,10 +768,10 @@
         <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -805,7 +805,7 @@
         <v>-1</v>
       </c>
       <c r="F11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>-6</v>
       </c>
       <c r="F12" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -870,10 +870,10 @@
         <v>29</v>
       </c>
       <c r="E13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F13" t="n">
         <v>-1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>-1</v>
       </c>
       <c r="F14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>-1</v>
       </c>
       <c r="F16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1040,10 +1040,10 @@
         <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>-3</v>
       </c>
       <c r="F19" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>-1</v>
       </c>
       <c r="F20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1142,10 +1142,10 @@
         <v>17</v>
       </c>
       <c r="E21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F21" t="n">
         <v>-2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-4</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>47</v>
       </c>
       <c r="E22" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F22" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -1213,7 +1213,7 @@
         <v>-4</v>
       </c>
       <c r="F23" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
@@ -1244,10 +1244,10 @@
         <v>36</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1278,10 +1278,10 @@
         <v>11</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1349,7 +1349,7 @@
         <v>-1</v>
       </c>
       <c r="F27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>30</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -1553,7 +1553,7 @@
         <v>-1</v>
       </c>
       <c r="F33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1652,10 +1652,10 @@
         <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F36" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
